--- a/biology/Zoologie/Cicadidae/Cicadidae.xlsx
+++ b/biology/Zoologie/Cicadidae/Cicadidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicadidés, Cigale
 La famille des Cicadidae regroupe des insectes de l'ordre des hémiptères. Ce sont des hétérométaboles (seule la dernière métamorphose sera complète). Le nom vient du latin cicada (« cigale ») et du grec ancien -ίδης / -ídēs (« fils de »). Il s'agit de la famille des cigales.
@@ -513,9 +525,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cigales sont de couleur générale brune, leur corps est long de 5 à 9 centimètres. Il existe aussi des cigales vertes, qui préfèrent s'installer sur les végétaux bien verts. Leur bouche possède une sorte de longue trompe rigide, le rostrum ou rostre, qu’elles plantent dans les racines (larves) et d'autres organes végétaux afin de se nourrir. Elles disposent de quatre longues ailes transparentes avec des traits ou des points noirs selon les espèces[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cigales sont de couleur générale brune, leur corps est long de 5 à 9 centimètres. Il existe aussi des cigales vertes, qui préfèrent s'installer sur les végétaux bien verts. Leur bouche possède une sorte de longue trompe rigide, le rostrum ou rostre, qu’elles plantent dans les racines (larves) et d'autres organes végétaux afin de se nourrir. Elles disposent de quatre longues ailes transparentes avec des traits ou des points noirs selon les espèces.
 La première apparition de la cigale remonte à 264 millions d’années.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cigales se nourrissent de la sève d'arbres ou d'arbustes, qu'elles prélèvent à l'aide de leur rostre situé sous la tête.
 </t>
@@ -576,14 +592,86 @@
           <t>Cycle de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs sont pondus en été en France, au collet (base du tronc) d'arbustes et d'herbes. À la fin de l'été ou à l'automne les œufs donnent des larves qui vont s'enfouir dans le sol, pour plusieurs années en général (17 ans pour la Magicicada septendecim).
-Période larvaire
-Pendant la période larvaire souterraine, qui dure de 10 mois à plusieurs années, la nutrition se fait sur des racines. Les larves sucent dans le xylème la sève brute (formée d'eau et de sels minéraux, ce qui explique leur croissance très lente). Plusieurs milliers de larves peuvent ponctionner un seul arbre hôte sans que ce prélèvement ne l'affecte[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période larvaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la période larvaire souterraine, qui dure de 10 mois à plusieurs années, la nutrition se fait sur des racines. Les larves sucent dans le xylème la sève brute (formée d'eau et de sels minéraux, ce qui explique leur croissance très lente). Plusieurs milliers de larves peuvent ponctionner un seul arbre hôte sans que ce prélèvement ne l'affecte.
 Les pattes avant sont munies d'une structure fouisseuse qui permet de creuser des galeries. La structure de l'abdomen canalise l'urine abondante des larves de cigales  vers les pattes avant, ce qui permet de ramollir la terre.
-Mue imaginale
-Ce n'est que durant la dernière année de sa vie que commence la vie aérienne de la cigale. La nymphe sort de terre et se fixe sur une tige ou un tronc, voire sur une pierre et commence sa dernière mue ou « mue imaginale ». La cigale se transforme alors en insecte adulte dit « parfait », ou imago, pour se reproduire durant seulement un mois et demi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mue imaginale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce n'est que durant la dernière année de sa vie que commence la vie aérienne de la cigale. La nymphe sort de terre et se fixe sur une tige ou un tronc, voire sur une pierre et commence sa dernière mue ou « mue imaginale ». La cigale se transforme alors en insecte adulte dit « parfait », ou imago, pour se reproduire durant seulement un mois et demi.
 			Vue d'une mue accélérée
 			Les étapes de la mue imaginale
 			L'ancienne cuticule se fend sous la pression exercée par la croissance de la cigale
@@ -596,83 +684,157 @@
 			2e étape de la mue - la cigale est sortie et a déployé ses ailes (11h20)
 			3e étape de la mue - la cigale est sortie (couleur verte) (13h00)
 			4e étape de la mue - la cigale est sortie (couleur grise) (14h30)
-Nécromasse
-Dans les régions où les émergences produisent une grande quantité de cigales notamment les cigales périodiques (ou cycliques) de l'espèce Magicicada septendecim, celles qui ne seront pas mangées par les prédateurs vont mourir après s'être reproduites[3].
-L'abondance cyclique d'une grande quantité de cadavres (nécromasse) de cigales mortes (tous les 17 ans aux États-Unis) fait partie de ce que les anglophones appellent « ressources naturelles pulsées »[3].
-Cette impulsion se traduit par un accroissement rapide de la biomasse microbienne du sol, ainsi que par une biodisponibilité accrue d'azote dans les sols forestiers ; s'ensuivent des effets indirects sur la croissance et la reproduction des plantes forestières[3]; ce qui confirme les liens étroits et réciproques existant entre les réservoirs aériens et souterrains des composants d'un écosystème forestier nord-américain abritant des populations importantes de cigales[3].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Cicadidae</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cycle de vie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nécromasse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les régions où les émergences produisent une grande quantité de cigales notamment les cigales périodiques (ou cycliques) de l'espèce Magicicada septendecim, celles qui ne seront pas mangées par les prédateurs vont mourir après s'être reproduites.
+L'abondance cyclique d'une grande quantité de cadavres (nécromasse) de cigales mortes (tous les 17 ans aux États-Unis) fait partie de ce que les anglophones appellent « ressources naturelles pulsées ».
+Cette impulsion se traduit par un accroissement rapide de la biomasse microbienne du sol, ainsi que par une biodisponibilité accrue d'azote dans les sols forestiers ; s'ensuivent des effets indirects sur la croissance et la reproduction des plantes forestières; ce qui confirme les liens étroits et réciproques existant entre les réservoirs aériens et souterrains des composants d'un écosystème forestier nord-américain abritant des populations importantes de cigales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>La cymbalisation ou « chant des cigales »</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La cymbalisation est un chant nuptial produit par les cigales mâles pour attirer les femelles[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La cymbalisation est un chant nuptial produit par les cigales mâles pour attirer les femelles.
 Dès que la température est suffisamment élevée (environ 25 °C), le mâle « chante », ou plus exactement, il cymbalise. Une erreur fréquente est de dire que les cigales stridulent comme le criquet.
 En effet, la stridulation est produite par le frottement de deux parties du corps d'un insecte (ou plus généralement d'un arthropode, car les mygales stridulent aussi, par exemple), alors que la cigale mâle possède un organe phonatoire spécialisé, les cymbales, qui est situé dans son abdomen.
-La cymbalisation est le résultat de la déformation d'une membrane (un peu comme le couvercle d'un bidon) actionnée par un muscle. Le son produit est amplifié dans une caisse de résonance et s'évacue par des évents. La fréquence et la modulation de la cymbalisation caractérisent les différentes espèces de cigales. Le but de cette cymbalisation est d'attirer les femelles de la même espèce[5].
+La cymbalisation est le résultat de la déformation d'une membrane (un peu comme le couvercle d'un bidon) actionnée par un muscle. Le son produit est amplifié dans une caisse de résonance et s'évacue par des évents. La fréquence et la modulation de la cymbalisation caractérisent les différentes espèces de cigales. Le but de cette cymbalisation est d'attirer les femelles de la même espèce.
 Généralement, on différencie les espèces grâce à leurs particularités morphologiques. Chez certaines cigales, les entomologistes n'en trouvent aucune. Le chant est alors un critère majeur de différenciation. La cigale mâle fait vibrer ses cymbales, l'organe qui émet les sons, pour attirer la femelle qui n'est sensible qu'au chant de son espèce. Des notes faibles, aigües et parfois à la limite de la perception. Les spécialistes sont capables de distinguer deux espèces de cigales simplement à l'oreille. Le plus délicat consiste à enregistrer et à collecter les individus en même temps. C'est la seule façon d'être sûr que le son vient bien de la cigale que l'on ramasse.
 Lorsque l'on s'approche d'une cigale qui cymbalise, elle arrête généralement son chant et s'immobilise totalement : elle ne reprend ce chant que lorsque l'on s'éloigne. Si on réussit à la faire entrer dans un bocal de verre, elle reste totalement immobile, et ne se remet à bouger que lorsqu'on la repose sur une branche d'arbre.
-Certaines espèces chantent jusqu'à 90dB, le record étant attribué à la cigale épicier vert (Cyclochila australasiae) à 120dB[6].
+Certaines espèces chantent jusqu'à 90dB, le record étant attribué à la cigale épicier vert (Cyclochila australasiae) à 120dB.
 Pendant le chant, les cigales détendent leur tympan afin de ne pas l'endommager par le bruit.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cicadidae</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>La famille des Cicadidae a été décrite par l'entomologiste français Pierre André Latreille en 1802[7].
-Taxinomie
-La famille des Cicadidae est composée de trois sous-familles[8],[9], Cicadettinae Buckton, 1889[8],[9],[10], Cicadinae Latreille, 1802[8],[9],[11] et Tibicininae Buckton, 1889[8],[9],[12] auxquelles il est possible d'adjoindre les genres fossiles[9], † Burmacicada Poinar &amp; Kritsky, 2012[13], † Davispia Cooper, 1941[14], † Dominicicada Poinar &amp; Kritsky, 2012[13] et † Fonsecacicada Martins-Neto &amp; Mendes, 2002[15].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cicadidae a été décrite par l'entomologiste français Pierre André Latreille en 1802.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Cicadidae est composée de trois sous-familles Cicadettinae Buckton, 1889 Cicadinae Latreille, 1802 et Tibicininae Buckton, 1889 auxquelles il est possible d'adjoindre les genres fossiles, † Burmacicada Poinar &amp; Kritsky, 2012, † Davispia Cooper, 1941, † Dominicicada Poinar &amp; Kritsky, 2012 et † Fonsecacicada Martins-Neto &amp; Mendes, 2002.
 Chaque sous-famille peut être divisée en tribus dans certaines classifications.
-Classification des tribus selon BioLib                    (8 octobre 2020)[16] :
+Classification des tribus selon BioLib                    (8 octobre 2020) :
 sous-famille Cicadettinae Buckton, 1889
 tribu Carinetini Distant, 1905
 tribu Chlorocystini Distant, 1905
@@ -718,8 +880,47 @@
 tribu Tettigadini Distant, 1905
 tribu Tibicinini Buckton, 1889
 Liste partielle de genres par sous-famille :
-Sous-famille Cicadettinae
-Selon NCBI  (19 mars 2018)[17] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sous-famille Cicadettinae</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (19 mars 2018) :
 Amphipsalta
 Cicadetta
 Kikihia
@@ -730,8 +931,47 @@
 Tettigettalna
 Tettigettula
 Magicicada
-Sous-famille Cicadinae
-Selon NCBI  (17 juil. 2011)[18] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sous-famille Cicadinae</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (17 juil. 2011) :
 Aceropyga
 Afzeliada
 Albanycada
@@ -773,8 +1013,47 @@
 Systophlochius
 Tanna (Distant, 1905)
 Ugada
-Sous-famille Tibicininae
-Selon NCBI  (18 mars 2018)[19] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sous-famille Tibicininae</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (18 mars 2018) :
 Arcystasia
 Chilecicada
 Chonosia
@@ -788,7 +1067,43 @@
 Quintilia
 Tettigades
 Tibicina
-Europe
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La famille des Cicadidae y est représentée par les sous-familles des Cicadinae et des Cicadettinae : quelques genres et espèces :
 Cicada
 Cicada barbara (Stål 1866)
@@ -808,39 +1123,76 @@
 Tettigettalna argentata - la cicadette argentée
 Tettigettula
 Tettigettula pygmea - la cigale pygmée, noire et jaune.
-[réf. nécessaire]
-Australie
+[réf. nécessaire]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Australie</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cicadinae
 Psaltoda (Stål)
 [réf. nécessaire]</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cicadidae</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>La cigale et l'être humain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t>En France, on l'associe couramment au folklore de Provence et des pays méditerranéens (quelques espèces remontent pourtant jusqu'au nord de la Loire, en Alsace, au Bassin parisien et en Normandie). L'image de la cigale a été popularisée par le céramiste Louis Sicard à travers ses productions amplement reprises depuis.
 Insecte estival par excellence (au moins dans les pays tempérés), la cigale a évoqué l'insouciance depuis l'Antiquité, et le fabuliste Esope en a fait l'héroïne d'une de ses fables, La Cigale et les Fourmis.
@@ -853,62 +1205,66 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cicadidae</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Magicicada dans les Appalaches</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans 13 États de l'est des États-Unis, dont le Tennessee et la Virginie, les cigales Magicicada septendecim, Magicicada cassini et Magicicada septendecula ont des cycles de 13 ou 17 ans de reproduction. À partir de la mi-mai, dès que la température atteint environ 17 °C, les larves sortent, généralement le soir, à la faveur d'une petite pluie qui ramollit la terre. Les femelles pondent environ 800 œufs chacune, dans de petites fentes qu'elles creusent dans l'écorce des branches à l'aide de l'ovipositeur situé à l'extrémité de leur abdomen, seul dégât causé par la cigale dont les œufs éclosent au bout d'environ quatre semaines. Les larves se laissent alors tomber sur le sol qu'elles creusent de leurs pattes avant fouisseuses. Un mécanisme original de gouttières abdominales leur permet même d'utiliser leur urine pour ramollir la terre.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cicadidae</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cicadidae</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cicadidae</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>En Chine : symbolique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t xml:space="preserve">On place dans la bouche des morts une cigale en jade, symbole de vie éternelle et de résurrection dans l'au-delà.
 </t>
